--- a/Excel Files/Scenario 13/TC031/13.0 - TC31 - Create Unit Parts.xlsx
+++ b/Excel Files/Scenario 13/TC031/13.0 - TC31 - Create Unit Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-syazwan\Excel Files\Scenario 13\TC031\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC031\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA46C92-ACCA-429E-A493-165C69DAD86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAACA58-211B-45CB-8B83-58E0B8559F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Parts" sheetId="6" r:id="rId1"/>
@@ -248,19 +248,19 @@
     <t>Inactive</t>
   </si>
   <si>
-    <t>PK-CUS-TB8-scenario13-20230604-001</t>
+    <t>PK-CUS-TBB-scenario13-20230604-001</t>
   </si>
   <si>
-    <t>PK-CUS-TB8-scenario13-20230604-002</t>
+    <t>PK-CUS-TBB-scenario13-20230604-002</t>
   </si>
   <si>
-    <t>PK-CUS-TB8-scenario13-20230604-003</t>
+    <t>PK-CUS-TBB-scenario13-20230604-003</t>
   </si>
   <si>
-    <t>TB8scenario1320230614011</t>
+    <t>TBBscenario1320230614011</t>
   </si>
   <si>
-    <t>TB8scenario1320230614012</t>
+    <t>TBBscenario1320230614012</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,11 +650,11 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6481,6 +6487,7 @@
       <sheetName val="JOB一覧힍"/>
       <sheetName val="動力源"/>
       <sheetName val=": ណ"/>
+      <sheetName val="改訂ԯ"/>
       <sheetName val="加入者ｽﾃｰﾀ_x0002__x0000__x0000__x0000_+_x0000_⽘_x0015__x0000__x0000_饦"/>
       <sheetName val="_x0000_:_x0013__x0000_0é0°_x0000__x0000__x0000__x0000_ ReQ_x0005_"/>
       <sheetName val=":”_x0013__x0000_0é0°_x0000_ ReQ_x0005_"/>
@@ -6489,7 +6496,6 @@
       <sheetName val="加入者ｽﾃｰﾀ_x0002__x0000__x0000__x0000_+_x0000___x0015__x0000__x0000__"/>
       <sheetName val=":”_x0013__x0000_0_0°_x0000_ ReQ_x0005_\"/>
       <sheetName val="_x0000_:”_x0013__x0000_0é0°_x0000__x0000__x0000__x0000_ ReQ_x0005_€"/>
-      <sheetName val="改訂ԯ"/>
       <sheetName val="33519_x0001__x0000_.5.5)"/>
       <sheetName val="df砯¬_x0000__x0000_"/>
       <sheetName val="変更管理シ0_x0000_"/>
@@ -12412,14 +12418,14 @@
       <sheetData sheetId="5763" refreshError="1"/>
       <sheetData sheetId="5764" refreshError="1"/>
       <sheetData sheetId="5765"/>
-      <sheetData sheetId="5766" refreshError="1"/>
+      <sheetData sheetId="5766"/>
       <sheetData sheetId="5767" refreshError="1"/>
       <sheetData sheetId="5768" refreshError="1"/>
       <sheetData sheetId="5769" refreshError="1"/>
       <sheetData sheetId="5770" refreshError="1"/>
       <sheetData sheetId="5771" refreshError="1"/>
       <sheetData sheetId="5772" refreshError="1"/>
-      <sheetData sheetId="5773"/>
+      <sheetData sheetId="5773" refreshError="1"/>
       <sheetData sheetId="5774"/>
       <sheetData sheetId="5775" refreshError="1"/>
       <sheetData sheetId="5776" refreshError="1"/>
@@ -12870,7 +12876,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15"/>
@@ -13076,7 +13082,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="23"/>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="31" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -13084,11 +13090,11 @@
       </c>
       <c r="E8" s="23" t="str">
         <f>C8</f>
-        <v>PK-CUS-TB8-scenario13-20230604-001</v>
+        <v>PK-CUS-TBB-scenario13-20230604-001</v>
       </c>
       <c r="F8" s="23" t="str">
         <f>C8</f>
-        <v>PK-CUS-TB8-scenario13-20230604-001</v>
+        <v>PK-CUS-TBB-scenario13-20230604-001</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>26</v>
@@ -13104,7 +13110,7 @@
       </c>
       <c r="K8" s="23" t="str">
         <f>C9</f>
-        <v>PK-CUS-TB8-scenario13-20230604-002</v>
+        <v>PK-CUS-TBB-scenario13-20230604-002</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>29</v>
@@ -13118,19 +13124,19 @@
         <v>25</v>
       </c>
       <c r="B9" s="23"/>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="32" t="s">
         <v>68</v>
       </c>
       <c r="E9" s="23" t="str">
         <f t="shared" ref="E9:E10" si="0">C9</f>
-        <v>PK-CUS-TB8-scenario13-20230604-002</v>
+        <v>PK-CUS-TBB-scenario13-20230604-002</v>
       </c>
       <c r="F9" s="23" t="str">
         <f t="shared" ref="F9:F10" si="1">C9</f>
-        <v>PK-CUS-TB8-scenario13-20230604-002</v>
+        <v>PK-CUS-TBB-scenario13-20230604-002</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>31</v>
@@ -13146,7 +13152,7 @@
       </c>
       <c r="K9" s="23" t="str">
         <f>C8</f>
-        <v>PK-CUS-TB8-scenario13-20230604-001</v>
+        <v>PK-CUS-TBB-scenario13-20230604-001</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>29</v>
@@ -13160,17 +13166,17 @@
         <v>25</v>
       </c>
       <c r="B10" s="23"/>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>PK-CUS-TB8-scenario13-20230604-003</v>
+        <v>PK-CUS-TBB-scenario13-20230604-003</v>
       </c>
       <c r="F10" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>PK-CUS-TB8-scenario13-20230604-003</v>
+        <v>PK-CUS-TBB-scenario13-20230604-003</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>32</v>
@@ -13448,6 +13454,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -13585,16 +13600,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84191C44-07FD-4A0E-84ED-1D9168549845}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3048192B-AF7E-4B17-A87E-0E35DF03767F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13610,12 +13624,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84191C44-07FD-4A0E-84ED-1D9168549845}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/TC031/13.0 - TC31 - Create Unit Parts.xlsx
+++ b/Excel Files/Scenario 13/TC031/13.0 - TC31 - Create Unit Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC031\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAACA58-211B-45CB-8B83-58E0B8559F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4A5A40-8BBB-4BD7-A4CD-759CC69B5ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,19 +248,19 @@
     <t>Inactive</t>
   </si>
   <si>
-    <t>PK-CUS-TBB-scenario13-20230604-001</t>
+    <t>PK-CUS-TS1-scenario13-20230604-001</t>
   </si>
   <si>
-    <t>PK-CUS-TBB-scenario13-20230604-002</t>
+    <t>PK-CUS-TS1-scenario13-20230604-002</t>
   </si>
   <si>
-    <t>PK-CUS-TBB-scenario13-20230604-003</t>
+    <t>PK-CUS-TS1-scenario13-20230604-003</t>
   </si>
   <si>
-    <t>TBBscenario1320230614011</t>
+    <t>TS1scenario1320230614011</t>
   </si>
   <si>
-    <t>TBBscenario1320230614012</t>
+    <t>TS1scenario1320230614012</t>
   </si>
 </sst>
 </file>
@@ -693,8 +693,8 @@
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 6 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準_OrionExcelDownloadForm" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="常规 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="標準_OrionExcelDownloadForm" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="㼿㼿㼿㼿㼿 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
@@ -12876,7 +12876,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15"/>
@@ -13090,11 +13090,11 @@
       </c>
       <c r="E8" s="23" t="str">
         <f>C8</f>
-        <v>PK-CUS-TBB-scenario13-20230604-001</v>
+        <v>PK-CUS-TS1-scenario13-20230604-001</v>
       </c>
       <c r="F8" s="23" t="str">
         <f>C8</f>
-        <v>PK-CUS-TBB-scenario13-20230604-001</v>
+        <v>PK-CUS-TS1-scenario13-20230604-001</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>26</v>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="K8" s="23" t="str">
         <f>C9</f>
-        <v>PK-CUS-TBB-scenario13-20230604-002</v>
+        <v>PK-CUS-TS1-scenario13-20230604-002</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>29</v>
@@ -13132,11 +13132,11 @@
       </c>
       <c r="E9" s="23" t="str">
         <f t="shared" ref="E9:E10" si="0">C9</f>
-        <v>PK-CUS-TBB-scenario13-20230604-002</v>
+        <v>PK-CUS-TS1-scenario13-20230604-002</v>
       </c>
       <c r="F9" s="23" t="str">
         <f t="shared" ref="F9:F10" si="1">C9</f>
-        <v>PK-CUS-TBB-scenario13-20230604-002</v>
+        <v>PK-CUS-TS1-scenario13-20230604-002</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>31</v>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="K9" s="23" t="str">
         <f>C8</f>
-        <v>PK-CUS-TBB-scenario13-20230604-001</v>
+        <v>PK-CUS-TS1-scenario13-20230604-001</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>29</v>
@@ -13172,11 +13172,11 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>PK-CUS-TBB-scenario13-20230604-003</v>
+        <v>PK-CUS-TS1-scenario13-20230604-003</v>
       </c>
       <c r="F10" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>PK-CUS-TBB-scenario13-20230604-003</v>
+        <v>PK-CUS-TS1-scenario13-20230604-003</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>32</v>

--- a/Excel Files/Scenario 13/TC031/13.0 - TC31 - Create Unit Parts.xlsx
+++ b/Excel Files/Scenario 13/TC031/13.0 - TC31 - Create Unit Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC031\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4A5A40-8BBB-4BD7-A4CD-759CC69B5ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2358A-9255-47FA-9E6C-ECCC3DE7F3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22176" yWindow="1056" windowWidth="22140" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Parts" sheetId="6" r:id="rId1"/>
@@ -248,19 +248,19 @@
     <t>Inactive</t>
   </si>
   <si>
-    <t>PK-CUS-TS1-scenario13-20230604-001</t>
+    <t>PK-CUS-TS2-scenario13-20230604-001</t>
   </si>
   <si>
-    <t>PK-CUS-TS1-scenario13-20230604-002</t>
+    <t>PK-CUS-TS2-scenario13-20230604-002</t>
   </si>
   <si>
-    <t>PK-CUS-TS1-scenario13-20230604-003</t>
+    <t>PK-CUS-TS2-scenario13-20230604-003</t>
   </si>
   <si>
-    <t>TS1scenario1320230614011</t>
+    <t>TS2scenario1320230614011</t>
   </si>
   <si>
-    <t>TS1scenario1320230614012</t>
+    <t>TS2scenario1320230614012</t>
   </si>
 </sst>
 </file>
@@ -12876,7 +12876,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15"/>
@@ -13090,11 +13090,11 @@
       </c>
       <c r="E8" s="23" t="str">
         <f>C8</f>
-        <v>PK-CUS-TS1-scenario13-20230604-001</v>
+        <v>PK-CUS-TS2-scenario13-20230604-001</v>
       </c>
       <c r="F8" s="23" t="str">
         <f>C8</f>
-        <v>PK-CUS-TS1-scenario13-20230604-001</v>
+        <v>PK-CUS-TS2-scenario13-20230604-001</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>26</v>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="K8" s="23" t="str">
         <f>C9</f>
-        <v>PK-CUS-TS1-scenario13-20230604-002</v>
+        <v>PK-CUS-TS2-scenario13-20230604-002</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>29</v>
@@ -13132,11 +13132,11 @@
       </c>
       <c r="E9" s="23" t="str">
         <f t="shared" ref="E9:E10" si="0">C9</f>
-        <v>PK-CUS-TS1-scenario13-20230604-002</v>
+        <v>PK-CUS-TS2-scenario13-20230604-002</v>
       </c>
       <c r="F9" s="23" t="str">
         <f t="shared" ref="F9:F10" si="1">C9</f>
-        <v>PK-CUS-TS1-scenario13-20230604-002</v>
+        <v>PK-CUS-TS2-scenario13-20230604-002</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>31</v>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="K9" s="23" t="str">
         <f>C8</f>
-        <v>PK-CUS-TS1-scenario13-20230604-001</v>
+        <v>PK-CUS-TS2-scenario13-20230604-001</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>29</v>
@@ -13172,11 +13172,11 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>PK-CUS-TS1-scenario13-20230604-003</v>
+        <v>PK-CUS-TS2-scenario13-20230604-003</v>
       </c>
       <c r="F10" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>PK-CUS-TS1-scenario13-20230604-003</v>
+        <v>PK-CUS-TS2-scenario13-20230604-003</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>32</v>

--- a/Excel Files/Scenario 13/TC031/13.0 - TC31 - Create Unit Parts.xlsx
+++ b/Excel Files/Scenario 13/TC031/13.0 - TC31 - Create Unit Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC031\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2358A-9255-47FA-9E6C-ECCC3DE7F3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA304B1-ADD9-46CC-AF88-1629E6996324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22176" yWindow="1056" windowWidth="22140" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Parts" sheetId="6" r:id="rId1"/>
@@ -248,19 +248,19 @@
     <t>Inactive</t>
   </si>
   <si>
-    <t>PK-CUS-TS2-scenario13-20230604-001</t>
+    <t>PK-CUS-TS6-scenario13-20230604-001</t>
   </si>
   <si>
-    <t>PK-CUS-TS2-scenario13-20230604-002</t>
+    <t>PK-CUS-TS6-scenario13-20230604-002</t>
   </si>
   <si>
-    <t>PK-CUS-TS2-scenario13-20230604-003</t>
+    <t>PK-CUS-TS6-scenario13-20230604-003</t>
   </si>
   <si>
-    <t>TS2scenario1320230614011</t>
+    <t>TS6scenario1320230614011</t>
   </si>
   <si>
-    <t>TS2scenario1320230614012</t>
+    <t>TS6scenario1320230614012</t>
   </si>
 </sst>
 </file>
@@ -12876,7 +12876,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15"/>
@@ -13090,11 +13090,11 @@
       </c>
       <c r="E8" s="23" t="str">
         <f>C8</f>
-        <v>PK-CUS-TS2-scenario13-20230604-001</v>
+        <v>PK-CUS-TS6-scenario13-20230604-001</v>
       </c>
       <c r="F8" s="23" t="str">
         <f>C8</f>
-        <v>PK-CUS-TS2-scenario13-20230604-001</v>
+        <v>PK-CUS-TS6-scenario13-20230604-001</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>26</v>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="K8" s="23" t="str">
         <f>C9</f>
-        <v>PK-CUS-TS2-scenario13-20230604-002</v>
+        <v>PK-CUS-TS6-scenario13-20230604-002</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>29</v>
@@ -13132,11 +13132,11 @@
       </c>
       <c r="E9" s="23" t="str">
         <f t="shared" ref="E9:E10" si="0">C9</f>
-        <v>PK-CUS-TS2-scenario13-20230604-002</v>
+        <v>PK-CUS-TS6-scenario13-20230604-002</v>
       </c>
       <c r="F9" s="23" t="str">
         <f t="shared" ref="F9:F10" si="1">C9</f>
-        <v>PK-CUS-TS2-scenario13-20230604-002</v>
+        <v>PK-CUS-TS6-scenario13-20230604-002</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>31</v>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="K9" s="23" t="str">
         <f>C8</f>
-        <v>PK-CUS-TS2-scenario13-20230604-001</v>
+        <v>PK-CUS-TS6-scenario13-20230604-001</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>29</v>
@@ -13172,11 +13172,11 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>PK-CUS-TS2-scenario13-20230604-003</v>
+        <v>PK-CUS-TS6-scenario13-20230604-003</v>
       </c>
       <c r="F10" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>PK-CUS-TS2-scenario13-20230604-003</v>
+        <v>PK-CUS-TS6-scenario13-20230604-003</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>32</v>
@@ -13454,15 +13454,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -13600,15 +13591,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84191C44-07FD-4A0E-84ED-1D9168549845}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3048192B-AF7E-4B17-A87E-0E35DF03767F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13624,4 +13616,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84191C44-07FD-4A0E-84ED-1D9168549845}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>